--- a/artfynd/A 63833-2025 artfynd.xlsx
+++ b/artfynd/A 63833-2025 artfynd.xlsx
@@ -985,10 +985,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131064788</v>
+        <v>131064793</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -996,23 +996,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1020,10 +1016,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445736</v>
+        <v>445757</v>
       </c>
       <c r="R5" t="n">
-        <v>7037107</v>
+        <v>7037091</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1056,11 +1052,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1087,10 +1078,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131064793</v>
+        <v>131064788</v>
       </c>
       <c r="B6" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,19 +1089,23 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1118,10 +1113,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445757</v>
+        <v>445736</v>
       </c>
       <c r="R6" t="n">
-        <v>7037091</v>
+        <v>7037107</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1154,6 +1149,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 63833-2025 artfynd.xlsx
+++ b/artfynd/A 63833-2025 artfynd.xlsx
@@ -773,10 +773,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131064789</v>
+        <v>131064793</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,23 +784,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -808,10 +804,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445611</v>
+        <v>445757</v>
       </c>
       <c r="R3" t="n">
-        <v>7037776</v>
+        <v>7037091</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -844,11 +840,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Födosökande</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -875,7 +866,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131064787</v>
+        <v>131064788</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -904,24 +895,16 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445713</v>
+        <v>445736</v>
       </c>
       <c r="R4" t="n">
-        <v>7037170</v>
+        <v>7037107</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -958,14 +941,14 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Bohål? Ca 5m upp i grantickerötad granhögstubbe</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -985,10 +968,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131064793</v>
+        <v>131064790</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -996,19 +979,23 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1016,10 +1003,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445757</v>
+        <v>445585</v>
       </c>
       <c r="R5" t="n">
-        <v>7037091</v>
+        <v>7037556</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1078,10 +1065,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131064788</v>
+        <v>131064794</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,23 +1076,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1113,10 +1096,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445736</v>
+        <v>445594</v>
       </c>
       <c r="R6" t="n">
-        <v>7037107</v>
+        <v>7037553</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1149,11 +1132,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1180,10 +1158,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131064790</v>
+        <v>131064789</v>
       </c>
       <c r="B7" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,34 +1169,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445585</v>
+        <v>445611</v>
       </c>
       <c r="R7" t="n">
-        <v>7037556</v>
+        <v>7037776</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1277,10 +1271,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131064794</v>
+        <v>131064787</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,30 +1282,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445594</v>
+        <v>445713</v>
       </c>
       <c r="R8" t="n">
-        <v>7037553</v>
+        <v>7037170</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1346,11 +1352,16 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Bohål? Ca 4,5m upp i grantickerötad granhögstubbe</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>

--- a/artfynd/A 63833-2025 artfynd.xlsx
+++ b/artfynd/A 63833-2025 artfynd.xlsx
@@ -968,10 +968,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131064790</v>
+        <v>131064794</v>
       </c>
       <c r="B5" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,23 +979,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1003,10 +999,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445585</v>
+        <v>445594</v>
       </c>
       <c r="R5" t="n">
-        <v>7037556</v>
+        <v>7037553</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1065,10 +1061,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131064794</v>
+        <v>131064790</v>
       </c>
       <c r="B6" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,19 +1072,23 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445594</v>
+        <v>445585</v>
       </c>
       <c r="R6" t="n">
-        <v>7037553</v>
+        <v>7037556</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131064789</v>
+        <v>131064787</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1186,33 +1186,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445611</v>
+        <v>445713</v>
       </c>
       <c r="R7" t="n">
-        <v>7037776</v>
+        <v>7037170</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1247,11 +1239,16 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Bohål? Ca 4,5m upp i grantickerötad granhögstubbe</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -1271,7 +1268,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131064787</v>
+        <v>131064789</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1299,25 +1296,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445713</v>
+        <v>445611</v>
       </c>
       <c r="R8" t="n">
-        <v>7037170</v>
+        <v>7037776</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1352,16 +1357,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Bohål? Ca 4,5m upp i grantickerötad granhögstubbe</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>

--- a/artfynd/A 63833-2025 artfynd.xlsx
+++ b/artfynd/A 63833-2025 artfynd.xlsx
@@ -968,10 +968,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131064794</v>
+        <v>131064790</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,19 +979,23 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -999,10 +1003,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445594</v>
+        <v>445585</v>
       </c>
       <c r="R5" t="n">
-        <v>7037553</v>
+        <v>7037556</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,10 +1065,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131064790</v>
+        <v>131064794</v>
       </c>
       <c r="B6" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,23 +1076,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445585</v>
+        <v>445594</v>
       </c>
       <c r="R6" t="n">
-        <v>7037556</v>
+        <v>7037553</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131064787</v>
+        <v>131064789</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1186,25 +1186,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445713</v>
+        <v>445611</v>
       </c>
       <c r="R7" t="n">
-        <v>7037170</v>
+        <v>7037776</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1239,16 +1247,11 @@
           <t>2026-02-07</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Bohål? Ca 4,5m upp i grantickerötad granhögstubbe</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="b">
         <v>0</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131064789</v>
+        <v>131064787</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1296,33 +1299,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svedjebodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445611</v>
+        <v>445713</v>
       </c>
       <c r="R8" t="n">
-        <v>7037776</v>
+        <v>7037170</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1357,11 +1352,16 @@
           <t>2026-02-07</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Bohål? Ca 4,5m upp i grantickerötad granhögstubbe</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>

--- a/artfynd/A 63833-2025 artfynd.xlsx
+++ b/artfynd/A 63833-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131064792</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>131064793</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>131064790</v>
       </c>
       <c r="B5" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>131064794</v>
       </c>
       <c r="B6" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
